--- a/Drop-down-List-Exercise+-+Unsolved.xlsx
+++ b/Drop-down-List-Exercise+-+Unsolved.xlsx
@@ -577,7 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -848,7 +850,7 @@
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -997,7 +999,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
